--- a/biology/Zoologie/Cyclophiops_major/Cyclophiops_major.xlsx
+++ b/biology/Zoologie/Cyclophiops_major/Cyclophiops_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclophiops major est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclophiops major est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Laos ;
 dans le sud de la république populaire de Chine, Hong Kong, Hainan et vers le nord jusqu'aux provinces de Henan et Gansu ;
 à Taïwan ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclophiops major est un serpent diurne[1] qui mesure jusqu'à 130 cm[2]. Son dos est uniformément vert ou vert foncé. Sa face ventrale est vert jaunâtre. La femelle pond entre 4 et 13 œufs mesurant environ 3 x 1,5 cm au printemps ou en début de l'été. Les jeunes mesurent jusqu'à 26 cm à l'éclosion.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclophiops major est un serpent diurne qui mesure jusqu'à 130 cm. Son dos est uniformément vert ou vert foncé. Sa face ventrale est vert jaunâtre. La femelle pond entre 4 et 13 œufs mesurant environ 3 x 1,5 cm au printemps ou en début de l'été. Les jeunes mesurent jusqu'à 26 cm à l'éclosion.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin major, « grand », lui a été donné en référence par rapport aux autres espèces du genre.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1858 : Catalogue of Colubrine Snakes in the Collection of the British Museum, London, p. 1-281 (texte intégral).</t>
         </is>
